--- a/test_summary.xlsx
+++ b/test_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">표본감사를 사용할 때 감사인의 목적은 추출된 표본이 모집단에 대해 결론을 도출하는 데 합리적인 근거를 제공하는 것이다. </t>
   </si>
   <si>
-    <t>표본감사란 계정잔액이나 특정 거래 유형의 특성을 평가하기 위한 목적으로, 전체항목(100％)보다 적은 수의 항목에 대해서 감사절차를 적용하는 것이다.</t>
+    <t>표본감사란 계정잔액이나 특정 거래의 입증을 목적으로, 전체 항목보다 적은 수의 항목에 대해서 감사절차를 적용하는 것이다.</t>
   </si>
   <si>
     <t xml:space="preserve">표본항목들은 표본이 모집단을 대표하는 방식으로 추출되어야 한다. 그러므로 모집단의 모든 항목들은 추출될 기회를 가져야 한다. </t>
@@ -67,10 +67,10 @@
     <t>Section B: 표본 설계 - 모집단과 표본</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) 모집단의 성격: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) 모집단의 완전성 확인  : </t>
+    <t xml:space="preserve">(1) 모집단의 성격 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) 모집단의 완전성 확인 방법 : </t>
   </si>
   <si>
     <t xml:space="preserve">(3) 표본단위의 정의  : </t>
@@ -79,10 +79,13 @@
     <t xml:space="preserve">(4) 전체 모집단이 추출 대상인가?  : </t>
   </si>
   <si>
-    <t>표본 지표</t>
-  </si>
-  <si>
-    <t>모집단 크기 : 21283534544</t>
+    <t>* 표본 지표</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---------------------------------------------------------------------------------------------------------------------------- </t>
+  </si>
+  <si>
+    <t>모집단 크기 : 21,283,534,544</t>
   </si>
   <si>
     <t>예상오류 : 35000000.0</t>
@@ -106,19 +109,19 @@
     <t xml:space="preserve">SignificantRisk    RelianceonControls        High   Moderate   Low   APNP </t>
   </si>
   <si>
-    <t>Yes                     No                             1.1        1.6          2.8         3</t>
+    <t>Yes                     No                             1.1         1.6          2.8         3</t>
   </si>
   <si>
     <t>No                      No                             0          0.5          1.7         1,9</t>
   </si>
   <si>
-    <t>Yes                     Yes                            0          0.2          1.4         1.6</t>
-  </si>
-  <si>
-    <t>No                      Yes                            0          0            0.3         0.5</t>
-  </si>
-  <si>
-    <t>표본크기 결정</t>
+    <t>Yes                     Yes                             0          0.2          1.4         1.6</t>
+  </si>
+  <si>
+    <t>No                     Yes                             0          0            0.3         0.5</t>
+  </si>
+  <si>
+    <t>* 표본크기 결정</t>
   </si>
   <si>
     <t>신뢰계수 (Assurance factor) : 3.0</t>
@@ -127,14 +130,20 @@
     <t>추출된 표본의 갯수 : 76</t>
   </si>
   <si>
-    <t xml:space="preserve">Test에 대한 추가 기술 &gt;&gt; </t>
+    <t xml:space="preserve">Test에 대한 추가 기술 및 결론 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">표본추출절차서 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section B: 표본 설계 - 모집단과 표본 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +151,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,9 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,265 +501,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C64"/>
+  <dimension ref="B1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="40.7109375" customWidth="1"/>
+    <col min="2" max="4" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -738,42 +788,42 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -788,27 +838,27 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -822,15 +872,10 @@
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/test_summary.xlsx
+++ b/test_summary.xlsx
@@ -127,7 +127,7 @@
     <t>신뢰계수 (Assurance factor) : 3.0</t>
   </si>
   <si>
-    <t>추출된 표본의 갯수 : 76</t>
+    <t>추출된 표본의 갯수 : 89</t>
   </si>
   <si>
     <t xml:space="preserve">Test에 대한 추가 기술 및 결론 : </t>

--- a/test_summary.xlsx
+++ b/test_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -85,13 +85,16 @@
     <t xml:space="preserve">---------------------------------------------------------------------------------------------------------------------------- </t>
   </si>
   <si>
-    <t>모집단 크기 : 21,283,534,544</t>
+    <t>모집단 크기 : 21283534544</t>
   </si>
   <si>
     <t>예상오류 : 35000000.0</t>
   </si>
   <si>
-    <t>표본대상 항목들의 위험평가 : Yes</t>
+    <t>Tolerable Misstatement : 700000000.0</t>
+  </si>
+  <si>
+    <t>표본대상 항목들의 위험평가 결과 SignificantRisk? : Yes</t>
   </si>
   <si>
     <t>통제에 의존하는 경우 : No</t>
@@ -100,34 +103,34 @@
     <t>실증적 분석적 검토 절차를 통해 기대수준의 확신을 얻었는가? : APNP</t>
   </si>
   <si>
+    <t>[Assurance factor]                                Planned Level of Assurance from Substantive Analytical Procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SignificantRisk    RelianceonControls        High   Moderate   Low   APNP </t>
+  </si>
+  <si>
+    <t>Yes                     No                             1.1         1.6          2.8         3</t>
+  </si>
+  <si>
+    <t>No                      No                             0          0.5          1.7         1,9</t>
+  </si>
+  <si>
+    <t>Yes                     Yes                             0          0.2          1.4         1.6</t>
+  </si>
+  <si>
+    <t>No                     Yes                             0          0            0.3         0.5</t>
+  </si>
+  <si>
+    <t>* 표본크기 결정</t>
+  </si>
+  <si>
+    <t>신뢰계수 (Assurance factor) : 3.0</t>
+  </si>
+  <si>
+    <t>추출된 표본의 갯수 : 89</t>
+  </si>
+  <si>
     <t xml:space="preserve">추출 방법 (MUS or Random): </t>
-  </si>
-  <si>
-    <t>[Assurance factor]                                Planned Level of Assurance from Substantive Analytical Procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SignificantRisk    RelianceonControls        High   Moderate   Low   APNP </t>
-  </si>
-  <si>
-    <t>Yes                     No                             1.1         1.6          2.8         3</t>
-  </si>
-  <si>
-    <t>No                      No                             0          0.5          1.7         1,9</t>
-  </si>
-  <si>
-    <t>Yes                     Yes                             0          0.2          1.4         1.6</t>
-  </si>
-  <si>
-    <t>No                     Yes                             0          0            0.3         0.5</t>
-  </si>
-  <si>
-    <t>* 표본크기 결정</t>
-  </si>
-  <si>
-    <t>신뢰계수 (Assurance factor) : 3.0</t>
-  </si>
-  <si>
-    <t>추출된 표본의 갯수 : 89</t>
   </si>
   <si>
     <t xml:space="preserve">Test에 대한 추가 기술 및 결론 : </t>
@@ -501,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D63"/>
+  <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -662,7 +665,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>0</v>
@@ -755,12 +758,12 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -770,7 +773,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>0</v>
@@ -788,47 +791,47 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -838,32 +841,32 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -873,9 +876,14 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
         <v>0</v>
       </c>
     </row>
